--- a/Datos/Flujo_de_Informacion_PDF_1.xlsx
+++ b/Datos/Flujo_de_Informacion_PDF_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andrea v4\Personal\Máster\Tecnológico Monterrrey\PASANTÍAS CON ALCALDIA\Sprint 0\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4190474A-1EF8-4CCF-BAB9-29A1E77D6075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8ECBB-1908-4A8B-B5C4-D142D9C1B224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EF8C73-0E51-403F-9BF3-02E5BA121430}"/>
   </bookViews>
@@ -941,915 +941,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82FCD66-DD3A-41E1-804B-67608FD04D90}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
       <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="44" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="45" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="52" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
+    <row r="59" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="60" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="62" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="63" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="66" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="69" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="70" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="73" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="74" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="76" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="B76" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="77" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="78" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="79" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3" t="s">
+    <row r="80" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="82" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>161</v>
       </c>
     </row>

--- a/Datos/Flujo_de_Informacion_PDF_1.xlsx
+++ b/Datos/Flujo_de_Informacion_PDF_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Andrea v4\Personal\Máster\Tecnológico Monterrrey\PASANTÍAS CON ALCALDIA\Sprint 0\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8ECBB-1908-4A8B-B5C4-D142D9C1B224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5054A-49FE-42B7-8B8F-7678F41F1466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EF8C73-0E51-403F-9BF3-02E5BA121430}"/>
   </bookViews>
@@ -48,57 +48,30 @@
     <t xml:space="preserve"> Trámites de certificaciones de residencia, representación legal de propiedad horizontal, autorización de rifas y eventos, permisos de ocupación de espacio público, procesos con juntas de acción comunal, entre otros.</t>
   </si>
   <si>
-    <t>¿Cómo acceder a los programas de la Secretaría de Educación? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Se puede obtener orientación e información sobre programas como alimentación y transporte escolar, bilingüismo, acceso a educación superior, entre otros.</t>
   </si>
   <si>
-    <t>¿Qué beneficios ofrece la Dirección de Integración Social? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Brinda programas como Colombia Mayor, Centro Día, paquetes alimentarios, beneficencia para adultos mayores, atención a población con discapacidad, mujer, familia y LGBTIQ+, entre otros.</t>
   </si>
   <si>
-    <t>¿Qué servicios ambientales se ofrecen? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Registro de publicidad exterior, talas de emergencia, capacitaciones ambientales, rescate de animales silvestres, esterilización y atención veterinaria para mascotas, entre otros.</t>
   </si>
   <si>
-    <t>¿Cómo obtener asesoría en temas de emprendimiento y turismo? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A través de la Dirección de Emprendimiento y Turismo, que ofrece convocatorias, ferias de empleo, registro de hojas de vida, capacitaciones, asesoría para emprendedores y promoción del turismo.</t>
   </si>
   <si>
-    <t>¿Qué trámites urbanísticos se pueden realizar? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Licencias y trámites urbanísticos, certificados de nomenclatura, estrato, norma urbana, uso de suelo, entre otros servicios de la Dirección de Desarrollo Territorial.</t>
   </si>
   <si>
-    <t>¿Cómo acceder a los servicios de la Secretaría de Infraestructura? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Se pueden solicitar autorizaciones de rotura e intervención de espacio público, servicios especiales de limpieza, recolección de escombros y mantenimiento de zonas verdes.</t>
   </si>
   <si>
-    <t>¿Qué servicios presta la Secretaría de Tránsito en cuanto a vehículos? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ofrece trámites como registro de matrículas, traspasos, cambios de motor, expedición y duplicado de licencias de conducción y placas, entre otros relacionados con vehículos.</t>
   </si>
   <si>
-    <t>¿Cómo acceder a los programas deportivos y recreativos del IDRM? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> El Instituto Municipal para el Deporte y la Recreación ofrece programas para población con discapacidad, actividades recreativas, escuelas de formación deportiva en diversas disciplinas, entre otros servicios.</t>
   </si>
   <si>
-    <t>¿Qué servicios ofrece la Oficina de Prensa e Imagen Corporativa? R</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fortalece la imagen institucional y la difusión de información a través del desarrollo de políticas, planes y estrategias de comunicación por diferentes medios.</t>
   </si>
   <si>
@@ -526,14 +499,49 @@
   </si>
   <si>
     <t>Respuestas</t>
+  </si>
+  <si>
+    <t>¿Cómo acceder a los programas de la Secretaría de Educación?</t>
+  </si>
+  <si>
+    <t>¿Qué beneficios ofrece la Dirección de Integración Social?</t>
+  </si>
+  <si>
+    <t>¿Qué servicios ambientales se ofrecen?</t>
+  </si>
+  <si>
+    <t>¿Cómo obtener asesoría en temas de emprendimiento y turismo?</t>
+  </si>
+  <si>
+    <t>¿Qué trámites urbanísticos se pueden realizar?</t>
+  </si>
+  <si>
+    <t>¿Cómo acceder a los servicios de la Secretaría de Infraestructura?</t>
+  </si>
+  <si>
+    <t>¿Qué servicios presta la Secretaría de Tránsito en cuanto a vehículos?</t>
+  </si>
+  <si>
+    <t>¿Cómo acceder a los programas deportivos y recreativos del IDRM?</t>
+  </si>
+  <si>
+    <t>¿Qué servicios ofrece la Oficina de Prensa e Imagen Corporativa?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -549,7 +557,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -557,76 +565,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82FCD66-DD3A-41E1-804B-67608FD04D90}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,660 +901,660 @@
     <col min="2" max="2" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="12" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="4" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="4" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="4" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="4" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="4" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="4" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="4" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="4" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="4" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="4" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="B57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="4" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="4" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="4" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="4" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="4" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="4" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="4" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="4" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="4" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="4" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="4" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="4" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="B71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="4" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="B72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="4" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="B74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="B75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="4" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="B76" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="4" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="B77" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="4" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="4" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="B79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="4" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="B80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="4" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="4" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="B82" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
